--- a/data/trans_dic/P19D_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R2-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.8624877598925713</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.9581165567246742</v>
+        <v>0.9581165567246744</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.9429083100058173</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9329305834498728</v>
+        <v>0.9295150687088375</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8580435875480623</v>
+        <v>0.8598572197383537</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8423553250021045</v>
+        <v>0.8482093503062577</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8403837607847608</v>
+        <v>0.8453368283685753</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9026356336288702</v>
+        <v>0.9017976652189182</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8316092882271143</v>
+        <v>0.8359075732120831</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8240867806387985</v>
+        <v>0.8264371738369439</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9177521161689391</v>
+        <v>0.918515342738512</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9212287308434864</v>
+        <v>0.9230863713296538</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.8580517884988468</v>
+        <v>0.8586085192201452</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.845410385123294</v>
+        <v>0.8468711275747109</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.8938198574409173</v>
+        <v>0.892939852914807</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9738505938582996</v>
+        <v>0.9739952117129013</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9198137793766445</v>
+        <v>0.9223630834906598</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9158401521698191</v>
+        <v>0.9156745518825533</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9499321723422067</v>
+        <v>0.9564053042204913</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9527976594142324</v>
+        <v>0.9518419768372972</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9034379769400664</v>
+        <v>0.9026318881808963</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8977964946397829</v>
+        <v>0.8939422897987479</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9821947395792031</v>
+        <v>0.980704083500906</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9565935680917423</v>
+        <v>0.95799438047733</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9060465727271605</v>
+        <v>0.9035443414792905</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8969637230369654</v>
+        <v>0.8968811984239161</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9623767013742386</v>
+        <v>0.9579098460360946</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.932763725892835</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9326928680903928</v>
+        <v>0.9326928680903926</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.938671613377439</v>
@@ -821,7 +821,7 @@
         <v>0.8942118160365269</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.9483972263172771</v>
+        <v>0.9483972263172766</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.9525668241361588</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9453507652414667</v>
+        <v>0.945630853953248</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8856183903120328</v>
+        <v>0.8860890741265027</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9077015836616152</v>
+        <v>0.9077488584477527</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8881642648350684</v>
+        <v>0.88967806408448</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9143406359469011</v>
+        <v>0.9141092697975642</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8478992457011951</v>
+        <v>0.8515747874355366</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8665736058220177</v>
+        <v>0.8657991522298646</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9253485339071441</v>
+        <v>0.9210560159668767</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.9380117340533576</v>
+        <v>0.9375854689787168</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.8759886181670918</v>
+        <v>0.8761874152307586</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.8931574137333954</v>
+        <v>0.8935731710730423</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.9188388924470114</v>
+        <v>0.9195161116940875</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9799051738816398</v>
+        <v>0.9786979581419234</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9316888900176679</v>
+        <v>0.9339254472347381</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9523522848302597</v>
+        <v>0.9538916528549959</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9588389044992669</v>
+        <v>0.9578915598393939</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9586139959638684</v>
+        <v>0.9572315981950351</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9062615841056315</v>
+        <v>0.9064795168595767</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9220248734456284</v>
+        <v>0.9203365209966027</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9659768459606666</v>
+        <v>0.9661900243292653</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9638293035118128</v>
+        <v>0.964018817756917</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9141863655528222</v>
+        <v>0.9131944175090053</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9282917644065005</v>
+        <v>0.9298975714219107</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9566301364765684</v>
+        <v>0.9562052088628917</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.9264822172447315</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9307813238189151</v>
+        <v>0.9307813238189147</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.9442421460382977</v>
@@ -957,7 +957,7 @@
         <v>0.9391531029890221</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.9501713046052072</v>
+        <v>0.9501713046052069</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.9362609050937826</v>
@@ -969,7 +969,7 @@
         <v>0.9329141135301194</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.9405282612109869</v>
+        <v>0.940528261210987</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8993513920062635</v>
+        <v>0.8994703094030594</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8618803057074175</v>
+        <v>0.8612840675497011</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9028565705972051</v>
+        <v>0.9045694258591168</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9087626148878514</v>
+        <v>0.9085873091969334</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9241176606706438</v>
+        <v>0.9232688848868336</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.902530687809353</v>
+        <v>0.9013149961751562</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9167486708375948</v>
+        <v>0.9163676551595578</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9324581306812184</v>
+        <v>0.9338808017803916</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9204129693540443</v>
+        <v>0.9198734851378918</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.8921998508574276</v>
+        <v>0.8898590031196633</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.9174738722841858</v>
+        <v>0.9167678954554443</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.9283152357605351</v>
+        <v>0.9260107111283168</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9491799738059534</v>
+        <v>0.9464849301066853</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9146302149912481</v>
+        <v>0.9145018863959551</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9462226964743877</v>
+        <v>0.9468460204249325</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9490160999063317</v>
+        <v>0.9505798040713537</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9625100088274359</v>
+        <v>0.9608528457868593</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9453367250816036</v>
+        <v>0.944445130161805</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9553130786281635</v>
+        <v>0.9572369782148024</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9642433399306336</v>
+        <v>0.963367902466991</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9492858812715232</v>
+        <v>0.9497673703232087</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.9244579026150853</v>
+        <v>0.9231070196727331</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9459231308543272</v>
+        <v>0.9452223917714053</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9529901975352034</v>
+        <v>0.9523012526325232</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.9320405931719141</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.9609864316268854</v>
+        <v>0.9609864316268855</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.9262490854988253</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8946336612222141</v>
+        <v>0.8956970607797751</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8328439431576079</v>
+        <v>0.8351748189069466</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8542547697741238</v>
+        <v>0.8525155266175265</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8958940984497743</v>
+        <v>0.8990597842932926</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8972969511185048</v>
+        <v>0.9021441754337618</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8880767903907389</v>
+        <v>0.891206349776006</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.907126145277814</v>
+        <v>0.9080353248570656</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.948072639534236</v>
+        <v>0.9489142078766065</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9064930343382007</v>
+        <v>0.9074645373504614</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.8707242672018765</v>
+        <v>0.8710842364504172</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.8879220331455832</v>
+        <v>0.8878855934210683</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.9303329202033709</v>
+        <v>0.9285380914736957</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.946365624007766</v>
+        <v>0.9487073318728945</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8958025907206779</v>
+        <v>0.9000370899020016</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9114007234987387</v>
+        <v>0.9132620961840306</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9414482016947173</v>
+        <v>0.9420841269568704</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.950114936052653</v>
+        <v>0.9526960812024013</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9374531534109718</v>
+        <v>0.9402559527358477</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.952184998881186</v>
+        <v>0.9506305562453695</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9703276510621391</v>
+        <v>0.9707650299107995</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9416845665840367</v>
+        <v>0.9421389902486428</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.9109641975451847</v>
+        <v>0.9092312337278862</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9239677154727236</v>
+        <v>0.9240585431361893</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9531991390645407</v>
+        <v>0.9536211137778768</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.9282249382998193</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.9407523220105579</v>
+        <v>0.9407523220105576</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.9016059412723317</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8383617250274444</v>
+        <v>0.8349328158600379</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7764706816200847</v>
+        <v>0.7737897486169278</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.867914170473728</v>
+        <v>0.8703463934932584</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8856995342773814</v>
+        <v>0.8838687669439532</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8839869663441671</v>
+        <v>0.8872810420261158</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8705682722280883</v>
+        <v>0.8730628142490313</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8941538741276531</v>
+        <v>0.8969261806594703</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9252541026140368</v>
+        <v>0.9230581167783405</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8758210348776055</v>
+        <v>0.8736166778947778</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.8373171452266086</v>
+        <v>0.837441426878734</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.8916382166439024</v>
+        <v>0.8925942384255464</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.9110898897322174</v>
+        <v>0.9113628409818959</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9148008384176064</v>
+        <v>0.9115949752354673</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.857429288936813</v>
+        <v>0.8625242100926958</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9335263378707135</v>
+        <v>0.9338013174412328</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9303401149464297</v>
+        <v>0.9306991636344996</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9467947369183186</v>
+        <v>0.9486307997594617</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9341476224788072</v>
+        <v>0.9345980356058574</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9495308388916454</v>
+        <v>0.9542823067804118</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9558511719357282</v>
+        <v>0.9550064906522259</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9226306763638882</v>
+        <v>0.922725951143857</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.8897781502443907</v>
+        <v>0.8903680576558959</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9352688017692338</v>
+        <v>0.933049547665191</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.938136981079599</v>
+        <v>0.9378173692914176</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.8881880361771443</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.888285801980832</v>
+        <v>0.8882858019808318</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.9008795713992455</v>
@@ -1365,7 +1365,7 @@
         <v>0.9028945935327317</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.9196685179912398</v>
+        <v>0.9196685179912396</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.8951366709398405</v>
@@ -1377,7 +1377,7 @@
         <v>0.8962203109934541</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.9046509455744558</v>
+        <v>0.9046509455744557</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8315018895838523</v>
+        <v>0.8415119697589374</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7283835167188421</v>
+        <v>0.7183479198444694</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8425687958933844</v>
+        <v>0.8429034279289144</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8573976204918576</v>
+        <v>0.8578056246857529</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8589297115109189</v>
+        <v>0.8590103483177683</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.8299070970519941</v>
+        <v>0.8310537747046821</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8645584171784474</v>
+        <v>0.8613703500421778</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.8990893015193849</v>
+        <v>0.8976980548779488</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.8653724512271982</v>
+        <v>0.8665770525901297</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.7937146224694869</v>
+        <v>0.7941577969740248</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.8651445020999557</v>
+        <v>0.86668043103484</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.8874123585389522</v>
+        <v>0.8871436884817675</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9247710855088972</v>
+        <v>0.9262268899344789</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8347358664949762</v>
+        <v>0.8295896377565808</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9241382581789206</v>
+        <v>0.9263586659012684</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9111181104932877</v>
+        <v>0.9100969411449845</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9331535503394961</v>
+        <v>0.9310362367963323</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9069178716305678</v>
+        <v>0.909729564852847</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9354225735392137</v>
+        <v>0.9319472068956015</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.9388611211773042</v>
+        <v>0.9358860005820618</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.9204392978112333</v>
+        <v>0.9202149037058125</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.8601470659941532</v>
+        <v>0.8603190095248114</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.9200067805663753</v>
+        <v>0.9202668082357468</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.9198898433575399</v>
+        <v>0.9195930324927852</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.9171281543085699</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.8964882974319784</v>
+        <v>0.8964882974319783</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.9237432403941455</v>
@@ -1501,7 +1501,7 @@
         <v>0.8807653934333229</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.9022767626425824</v>
+        <v>0.9022767626425825</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.8948559655297078</v>
@@ -1513,7 +1513,7 @@
         <v>0.8950760614481537</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.8999363364313639</v>
+        <v>0.8999363364313636</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7770378329913069</v>
+        <v>0.7750326293119961</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6863691235841481</v>
+        <v>0.682327442384638</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8682008210882849</v>
+        <v>0.8729358418109299</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8647264236712234</v>
+        <v>0.8658518571255412</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8799086199074061</v>
+        <v>0.875486492623165</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.75701590001217</v>
+        <v>0.7640387734036754</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8260718286142914</v>
+        <v>0.8198035080853976</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.8818413440792637</v>
+        <v>0.8803144956065619</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.8546838632456549</v>
+        <v>0.8556707895019916</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.75139049344467</v>
+        <v>0.7482450304770444</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.8592568677094786</v>
+        <v>0.8565214617757217</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.8820308568991365</v>
+        <v>0.8812200705445428</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9046431249253826</v>
+        <v>0.9101168916719438</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8213521572356253</v>
+        <v>0.8194497855127071</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9508033578582705</v>
+        <v>0.9510380161932344</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9232103678854138</v>
+        <v>0.9239046088889303</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9572299296784075</v>
+        <v>0.9551576472699338</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8516348632905355</v>
+        <v>0.8541122933796691</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9228283051176281</v>
+        <v>0.9230364369341109</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.922599202473386</v>
+        <v>0.92158445048278</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9275925188455074</v>
+        <v>0.9248027161152321</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.8234713536147589</v>
+        <v>0.8289571835611715</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.9271241636129015</v>
+        <v>0.9222212641546824</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.9164078540892149</v>
+        <v>0.9167356627253033</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.910968402716848</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.9417684334446808</v>
+        <v>0.9417684334446809</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.9288503938444473</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.9157524169740296</v>
+        <v>0.9146097781442035</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8504193355095083</v>
+        <v>0.8492600605694383</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8946395940047963</v>
+        <v>0.8949057411227108</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.9037188612420568</v>
+        <v>0.9023612898109542</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.9207509202546594</v>
+        <v>0.9200901789268838</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.8787393723478415</v>
+        <v>0.8790351840616908</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.8986812734593571</v>
+        <v>0.8993144689921403</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.9349553931952514</v>
+        <v>0.9343932869066346</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.9209697591619982</v>
+        <v>0.9211332048024798</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.8687549762144509</v>
+        <v>0.8687170778241816</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.9000973186854777</v>
+        <v>0.9012459202398545</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.9225232489840244</v>
+        <v>0.921720172625153</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9372023559187918</v>
+        <v>0.9370137923069907</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8767606046057091</v>
+        <v>0.8765999324802164</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9180757514632076</v>
+        <v>0.9178322158716045</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.9250224615811765</v>
+        <v>0.9247161490936596</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.9401147220725058</v>
+        <v>0.9398167782690368</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.9019736222119958</v>
+        <v>0.9011752475768059</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.921283425139387</v>
+        <v>0.9211353620215241</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.9490147895323103</v>
+        <v>0.9482422199172758</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.9360254547302681</v>
+        <v>0.9358842475605654</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.8853815923344154</v>
+        <v>0.8858913269453247</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.9167797124740499</v>
+        <v>0.9165966014704101</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.9352617387797481</v>
+        <v>0.9341371474963417</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>335296</v>
+        <v>334069</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>326155</v>
+        <v>326845</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>297217</v>
+        <v>299282</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>315812</v>
+        <v>317673</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>339618</v>
+        <v>339303</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>306911</v>
+        <v>308498</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>290021</v>
+        <v>290848</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>313142</v>
+        <v>313402</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>677705</v>
+        <v>679071</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>642828</v>
+        <v>643245</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>595820</v>
+        <v>596849</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>640870</v>
+        <v>640239</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>350003</v>
+        <v>350055</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>349635</v>
+        <v>350604</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>323145</v>
+        <v>323087</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>356980</v>
+        <v>359412</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>358492</v>
+        <v>358132</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>333420</v>
+        <v>333123</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>315962</v>
+        <v>314605</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>335130</v>
+        <v>334621</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>703721</v>
+        <v>704751</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>678785</v>
+        <v>676910</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>632153</v>
+        <v>632095</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>690025</v>
+        <v>686822</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>545737</v>
+        <v>545899</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>525578</v>
+        <v>525858</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>447568</v>
+        <v>447591</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>397435</v>
+        <v>398112</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>500792</v>
+        <v>500665</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>474697</v>
+        <v>476755</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>430444</v>
+        <v>430060</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>446917</v>
+        <v>444843</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1055257</v>
+        <v>1054777</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1010287</v>
+        <v>1010517</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>884045</v>
+        <v>884456</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>854933</v>
+        <v>855563</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>565685</v>
+        <v>564988</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>552919</v>
+        <v>554246</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>469584</v>
+        <v>470343</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>429060</v>
+        <v>428636</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>525041</v>
+        <v>524283</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>507371</v>
+        <v>507493</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>457988</v>
+        <v>457150</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>466539</v>
+        <v>466642</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1084301</v>
+        <v>1084514</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1054341</v>
+        <v>1053197</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>918820</v>
+        <v>920410</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>890096</v>
+        <v>889700</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>452313</v>
+        <v>452373</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>504549</v>
+        <v>504200</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>501891</v>
+        <v>502843</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>544585</v>
+        <v>544480</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>557765</v>
+        <v>557253</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>593479</v>
+        <v>592680</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>525370</v>
+        <v>525152</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>564805</v>
+        <v>565667</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1018434</v>
+        <v>1017837</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1108984</v>
+        <v>1106074</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1035803</v>
+        <v>1035006</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1118598</v>
+        <v>1115821</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>477374</v>
+        <v>476019</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>535429</v>
+        <v>535354</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>525998</v>
+        <v>526344</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>568707</v>
+        <v>569644</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>580937</v>
+        <v>579937</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>621627</v>
+        <v>621041</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>547471</v>
+        <v>548573</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>584058</v>
+        <v>583527</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1050382</v>
+        <v>1050915</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1149080</v>
+        <v>1147401</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1067922</v>
+        <v>1067131</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1148330</v>
+        <v>1147500</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>362101</v>
+        <v>362532</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>449495</v>
+        <v>450753</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>437696</v>
+        <v>436805</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>607530</v>
+        <v>609677</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>394079</v>
+        <v>396208</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>498414</v>
+        <v>500170</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>494279</v>
+        <v>494774</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>686948</v>
+        <v>687558</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>765019</v>
+        <v>765839</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>958614</v>
+        <v>959011</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>938761</v>
+        <v>938722</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1304978</v>
+        <v>1302460</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>383040</v>
+        <v>383987</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>483475</v>
+        <v>485760</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>466976</v>
+        <v>467930</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>638421</v>
+        <v>638853</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>417276</v>
+        <v>418410</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>526125</v>
+        <v>527698</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>518830</v>
+        <v>517983</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>703073</v>
+        <v>703390</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>794719</v>
+        <v>795102</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1002916</v>
+        <v>1001008</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>976870</v>
+        <v>976966</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1337052</v>
+        <v>1337644</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>228327</v>
+        <v>227393</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>281403</v>
+        <v>280431</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>321998</v>
+        <v>322900</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>527377</v>
+        <v>526286</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>282064</v>
+        <v>283115</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>340942</v>
+        <v>341919</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>353971</v>
+        <v>355069</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>551278</v>
+        <v>549970</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>517988</v>
+        <v>516684</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>631375</v>
+        <v>631469</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>683775</v>
+        <v>684508</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1085334</v>
+        <v>1085659</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>249145</v>
+        <v>248272</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>310744</v>
+        <v>312590</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>346340</v>
+        <v>346442</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>553957</v>
+        <v>554171</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>302105</v>
+        <v>302691</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>365842</v>
+        <v>366018</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>375894</v>
+        <v>377775</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>569509</v>
+        <v>569005</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>545672</v>
+        <v>545729</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>670933</v>
+        <v>671378</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>717234</v>
+        <v>715532</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1117554</v>
+        <v>1117173</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>177611</v>
+        <v>179749</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>190465</v>
+        <v>187841</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>193896</v>
+        <v>193973</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>338885</v>
+        <v>339046</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>212102</v>
+        <v>212122</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>248687</v>
+        <v>249030</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>239438</v>
+        <v>238555</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>387251</v>
+        <v>386652</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>398539</v>
+        <v>399094</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>445390</v>
+        <v>445638</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>438692</v>
+        <v>439471</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>732970</v>
+        <v>732748</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>197534</v>
+        <v>197845</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>218275</v>
+        <v>216929</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>212667</v>
+        <v>213178</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>360118</v>
+        <v>359714</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>230431</v>
+        <v>229908</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>271763</v>
+        <v>272606</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>259063</v>
+        <v>258101</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>404382</v>
+        <v>403100</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>423900</v>
+        <v>423797</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>482668</v>
+        <v>482765</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>466512</v>
+        <v>466643</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>759795</v>
+        <v>759550</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>98500</v>
+        <v>98246</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>126927</v>
+        <v>126180</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>127675</v>
+        <v>128371</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>262623</v>
+        <v>262964</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>183204</v>
+        <v>182283</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>230500</v>
+        <v>232638</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>187194</v>
+        <v>185774</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>394568</v>
+        <v>393884</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>286295</v>
+        <v>286626</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>367739</v>
+        <v>366199</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>321074</v>
+        <v>320052</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>662531</v>
+        <v>661922</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>114676</v>
+        <v>115370</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>151889</v>
+        <v>151538</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>139822</v>
+        <v>139857</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>280385</v>
+        <v>280595</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>199303</v>
+        <v>198871</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>259310</v>
+        <v>260064</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>209120</v>
+        <v>209167</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>412804</v>
+        <v>412350</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>310718</v>
+        <v>309783</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>403016</v>
+        <v>405701</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>346434</v>
+        <v>344602</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>688353</v>
+        <v>688600</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2250081</v>
+        <v>2247273</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2472611</v>
+        <v>2469241</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2381858</v>
+        <v>2382567</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>3068171</v>
+        <v>3063562</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>2523720</v>
+        <v>2521909</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2762301</v>
+        <v>2763230</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>2575660</v>
+        <v>2577475</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>3392419</v>
+        <v>3390380</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>4787220</v>
+        <v>4788070</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>5256837</v>
+        <v>5256608</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>4976107</v>
+        <v>4982457</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>6479323</v>
+        <v>6473682</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2302785</v>
+        <v>2302322</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>2549199</v>
+        <v>2548732</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>2444254</v>
+        <v>2443605</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>3140498</v>
+        <v>3139458</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>2576795</v>
+        <v>2575979</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>2835337</v>
+        <v>2832827</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>2640439</v>
+        <v>2640014</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>3443433</v>
+        <v>3440630</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>4865480</v>
+        <v>4864746</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>5357445</v>
+        <v>5360529</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>5068334</v>
+        <v>5067322</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>6568791</v>
+        <v>6560893</v>
       </c>
     </row>
     <row r="36">
